--- a/input/validation_statistics.xlsx
+++ b/input/validation_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim_Italy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12669B81-2070-43C4-A370-813C875B7050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840BABF0-1F71-4B98-8206-A3EEDFC4C805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="807" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IT_studentsByAge" sheetId="2" r:id="rId1"/>
@@ -753,11 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED40967-9467-4327-B5DA-7CB5FDCDCA76}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1085,7 +1083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1188,7 +1186,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1289,7 +1287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -1774,7 +1772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -2259,7 +2257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2384,7 +2382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2509,7 +2507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2804,7 +2802,7 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -3096,9 +3094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F368D01-C764-4253-935B-6219588BDE7C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3223,7 +3221,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3351,7 +3349,7 @@
       <selection activeCell="AB54" sqref="AB54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3548,7 +3546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3673,7 +3671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
@@ -4302,7 +4300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -4715,7 +4713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4912,7 +4910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5013,7 +5011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -5210,7 +5208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
